--- a/eclingo_reif_YBE_Propagate_600s.xlsx
+++ b/eclingo_reif_YBE_Propagate_600s.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF9CDB-4DCE-C347-BBF9-5B0F537E1C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53941984-0155-C546-B71D-4190BD41131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="337">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -565,27 +579,6 @@
     <t>bomb_problems/many/bmtuc_bomb_0150_04.lp</t>
   </si>
   <si>
-    <t>yale_shooting/yale-parameter_yale01.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale02.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale03.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale04.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale05.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale07.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale08.lp</t>
-  </si>
-  <si>
     <t>yale_shooting/yale_yale01.lp</t>
   </si>
   <si>
@@ -1042,28 +1035,16 @@
     <t>eligible/eligible_eligible9968-1.lp</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>BETTER</t>
-  </si>
-  <si>
-    <t>WORSE</t>
-  </si>
-  <si>
-    <t>WORST</t>
+    <t>Yale Problems - Average</t>
+  </si>
+  <si>
+    <t>Bomb Problems - Average</t>
+  </si>
+  <si>
+    <t>Eligible Problems - Average</t>
+  </si>
+  <si>
+    <t>Total Problems - Average</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A336" sqref="A336:F353"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4960,19 +4941,19 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>0.19181300000000001</v>
+        <v>0.22117100000000001</v>
       </c>
       <c r="C177">
-        <v>0.19403100000000001</v>
+        <v>0.22278000000000001</v>
       </c>
       <c r="D177">
-        <v>0.19181300000000001</v>
+        <v>0.22117100000000001</v>
       </c>
       <c r="E177">
-        <v>0.19292200000000001</v>
+        <v>0.22197549999999999</v>
       </c>
       <c r="F177">
-        <v>0.19403100000000001</v>
+        <v>0.22278000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4980,19 +4961,19 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>0.19353799999999999</v>
+        <v>0.24219099999999999</v>
       </c>
       <c r="C178">
-        <v>0.19561000000000001</v>
+        <v>0.24288199999999999</v>
       </c>
       <c r="D178">
-        <v>0.19353799999999999</v>
+        <v>0.24219099999999999</v>
       </c>
       <c r="E178">
-        <v>0.194574</v>
+        <v>0.24253649999999999</v>
       </c>
       <c r="F178">
-        <v>0.19561000000000001</v>
+        <v>0.24288199999999999</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,19 +4981,19 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>0.19132399999999999</v>
+        <v>0.26708599999999999</v>
       </c>
       <c r="C179">
-        <v>0.19896900000000001</v>
+        <v>0.27128600000000003</v>
       </c>
       <c r="D179">
-        <v>0.19132399999999999</v>
+        <v>0.26708599999999999</v>
       </c>
       <c r="E179">
-        <v>0.1951465</v>
+        <v>0.26918599999999998</v>
       </c>
       <c r="F179">
-        <v>0.19896900000000001</v>
+        <v>0.27128600000000003</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5020,19 +5001,19 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>0.202958</v>
+        <v>0.30158200000000002</v>
       </c>
       <c r="C180">
-        <v>0.20256099999999999</v>
+        <v>0.30668699999999999</v>
       </c>
       <c r="D180">
-        <v>0.20256099999999999</v>
+        <v>0.30158200000000002</v>
       </c>
       <c r="E180">
-        <v>0.20275950000000001</v>
+        <v>0.30413449999999997</v>
       </c>
       <c r="F180">
-        <v>0.202958</v>
+        <v>0.30668699999999999</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,19 +5021,19 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>0.213864</v>
+        <v>0.407829</v>
       </c>
       <c r="C181">
-        <v>0.21285100000000001</v>
+        <v>0.41586400000000001</v>
       </c>
       <c r="D181">
-        <v>0.21285100000000001</v>
+        <v>0.407829</v>
       </c>
       <c r="E181">
-        <v>0.21335750000000001</v>
+        <v>0.4118465</v>
       </c>
       <c r="F181">
-        <v>0.213864</v>
+        <v>0.41586400000000001</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5060,19 +5041,19 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>0.214921</v>
+        <v>0.50102400000000002</v>
       </c>
       <c r="C182">
-        <v>0.21548100000000001</v>
+        <v>0.50816300000000003</v>
       </c>
       <c r="D182">
-        <v>0.214921</v>
+        <v>0.50102400000000002</v>
       </c>
       <c r="E182">
-        <v>0.215201</v>
+        <v>0.50459350000000003</v>
       </c>
       <c r="F182">
-        <v>0.21548100000000001</v>
+        <v>0.50816300000000003</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5080,19 +5061,19 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>0.227718</v>
+        <v>0.693523</v>
       </c>
       <c r="C183">
-        <v>0.230294</v>
+        <v>0.67081000000000002</v>
       </c>
       <c r="D183">
-        <v>0.227718</v>
+        <v>0.67081000000000002</v>
       </c>
       <c r="E183">
-        <v>0.22900599999999999</v>
+        <v>0.68216650000000001</v>
       </c>
       <c r="F183">
-        <v>0.230294</v>
+        <v>0.693523</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -5100,19 +5081,19 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>0.22117100000000001</v>
+        <v>0.427838</v>
       </c>
       <c r="C184">
-        <v>0.22278000000000001</v>
+        <v>0.43889400000000001</v>
       </c>
       <c r="D184">
-        <v>0.22117100000000001</v>
+        <v>0.427838</v>
       </c>
       <c r="E184">
-        <v>0.22197549999999999</v>
+        <v>0.43336599999999997</v>
       </c>
       <c r="F184">
-        <v>0.22278000000000001</v>
+        <v>0.43889400000000001</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -5120,19 +5101,19 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>0.24219099999999999</v>
+        <v>0.42694900000000002</v>
       </c>
       <c r="C185">
-        <v>0.24288199999999999</v>
+        <v>0.42429499999999998</v>
       </c>
       <c r="D185">
-        <v>0.24219099999999999</v>
+        <v>0.42429499999999998</v>
       </c>
       <c r="E185">
-        <v>0.24253649999999999</v>
+        <v>0.425622</v>
       </c>
       <c r="F185">
-        <v>0.24288199999999999</v>
+        <v>0.42694900000000002</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -5140,19 +5121,19 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>0.26708599999999999</v>
+        <v>0.44647700000000001</v>
       </c>
       <c r="C186">
-        <v>0.27128600000000003</v>
+        <v>0.450735</v>
       </c>
       <c r="D186">
-        <v>0.26708599999999999</v>
+        <v>0.44647700000000001</v>
       </c>
       <c r="E186">
-        <v>0.26918599999999998</v>
+        <v>0.448606</v>
       </c>
       <c r="F186">
-        <v>0.27128600000000003</v>
+        <v>0.450735</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -5160,19 +5141,19 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>0.30158200000000002</v>
+        <v>0.45061600000000002</v>
       </c>
       <c r="C187">
-        <v>0.30668699999999999</v>
+        <v>0.46122999999999997</v>
       </c>
       <c r="D187">
-        <v>0.30158200000000002</v>
+        <v>0.45061600000000002</v>
       </c>
       <c r="E187">
-        <v>0.30413449999999997</v>
+        <v>0.45592300000000002</v>
       </c>
       <c r="F187">
-        <v>0.30668699999999999</v>
+        <v>0.46122999999999997</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -5180,19 +5161,19 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>0.407829</v>
+        <v>0.48055500000000001</v>
       </c>
       <c r="C188">
-        <v>0.41586400000000001</v>
+        <v>0.49564599999999998</v>
       </c>
       <c r="D188">
-        <v>0.407829</v>
+        <v>0.48055500000000001</v>
       </c>
       <c r="E188">
-        <v>0.4118465</v>
+        <v>0.48810049999999999</v>
       </c>
       <c r="F188">
-        <v>0.41586400000000001</v>
+        <v>0.49564599999999998</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,19 +5181,19 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>0.50102400000000002</v>
+        <v>0.489728</v>
       </c>
       <c r="C189">
-        <v>0.50816300000000003</v>
+        <v>0.47820800000000002</v>
       </c>
       <c r="D189">
-        <v>0.50102400000000002</v>
+        <v>0.47820800000000002</v>
       </c>
       <c r="E189">
-        <v>0.50459350000000003</v>
+        <v>0.48396800000000001</v>
       </c>
       <c r="F189">
-        <v>0.50816300000000003</v>
+        <v>0.489728</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -5220,19 +5201,19 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>0.693523</v>
+        <v>0.50950799999999996</v>
       </c>
       <c r="C190">
-        <v>0.67081000000000002</v>
+        <v>0.50698200000000004</v>
       </c>
       <c r="D190">
-        <v>0.67081000000000002</v>
+        <v>0.50698200000000004</v>
       </c>
       <c r="E190">
-        <v>0.68216650000000001</v>
+        <v>0.50824500000000006</v>
       </c>
       <c r="F190">
-        <v>0.693523</v>
+        <v>0.50950799999999996</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -5240,19 +5221,19 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>0.427838</v>
+        <v>0.51156900000000005</v>
       </c>
       <c r="C191">
-        <v>0.43889400000000001</v>
+        <v>0.52621600000000002</v>
       </c>
       <c r="D191">
-        <v>0.427838</v>
+        <v>0.51156900000000005</v>
       </c>
       <c r="E191">
-        <v>0.43336599999999997</v>
+        <v>0.51889249999999998</v>
       </c>
       <c r="F191">
-        <v>0.43889400000000001</v>
+        <v>0.52621600000000002</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -5260,19 +5241,19 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>0.42694900000000002</v>
+        <v>0.55738100000000002</v>
       </c>
       <c r="C192">
-        <v>0.42429499999999998</v>
+        <v>0.53436799999999995</v>
       </c>
       <c r="D192">
-        <v>0.42429499999999998</v>
+        <v>0.53436799999999995</v>
       </c>
       <c r="E192">
-        <v>0.425622</v>
+        <v>0.54587450000000004</v>
       </c>
       <c r="F192">
-        <v>0.42694900000000002</v>
+        <v>0.55738100000000002</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -5280,19 +5261,19 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>0.44647700000000001</v>
+        <v>0.56095600000000001</v>
       </c>
       <c r="C193">
-        <v>0.450735</v>
+        <v>0.56093999999999999</v>
       </c>
       <c r="D193">
-        <v>0.44647700000000001</v>
+        <v>0.56093999999999999</v>
       </c>
       <c r="E193">
-        <v>0.448606</v>
+        <v>0.560948</v>
       </c>
       <c r="F193">
-        <v>0.450735</v>
+        <v>0.56095600000000001</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -5300,19 +5281,19 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>0.45061600000000002</v>
+        <v>0.561276</v>
       </c>
       <c r="C194">
-        <v>0.46122999999999997</v>
+        <v>0.56701500000000005</v>
       </c>
       <c r="D194">
-        <v>0.45061600000000002</v>
+        <v>0.561276</v>
       </c>
       <c r="E194">
-        <v>0.45592300000000002</v>
+        <v>0.56414549999999997</v>
       </c>
       <c r="F194">
-        <v>0.46122999999999997</v>
+        <v>0.56701500000000005</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5320,19 +5301,19 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>0.48055500000000001</v>
+        <v>0.63066</v>
       </c>
       <c r="C195">
-        <v>0.49564599999999998</v>
+        <v>0.60686200000000001</v>
       </c>
       <c r="D195">
-        <v>0.48055500000000001</v>
+        <v>0.60686200000000001</v>
       </c>
       <c r="E195">
-        <v>0.48810049999999999</v>
+        <v>0.61876100000000001</v>
       </c>
       <c r="F195">
-        <v>0.49564599999999998</v>
+        <v>0.63066</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5340,19 +5321,19 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>0.489728</v>
+        <v>0.61307199999999995</v>
       </c>
       <c r="C196">
-        <v>0.47820800000000002</v>
+        <v>0.61257499999999998</v>
       </c>
       <c r="D196">
-        <v>0.47820800000000002</v>
+        <v>0.61257499999999998</v>
       </c>
       <c r="E196">
-        <v>0.48396800000000001</v>
+        <v>0.61282349999999997</v>
       </c>
       <c r="F196">
-        <v>0.489728</v>
+        <v>0.61307199999999995</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5360,19 +5341,19 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>0.50950799999999996</v>
+        <v>0.63351900000000005</v>
       </c>
       <c r="C197">
-        <v>0.50698200000000004</v>
+        <v>0.62890199999999996</v>
       </c>
       <c r="D197">
-        <v>0.50698200000000004</v>
+        <v>0.62890199999999996</v>
       </c>
       <c r="E197">
-        <v>0.50824500000000006</v>
+        <v>0.63121050000000001</v>
       </c>
       <c r="F197">
-        <v>0.50950799999999996</v>
+        <v>0.63351900000000005</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5380,19 +5361,19 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>0.51156900000000005</v>
+        <v>0.67018500000000003</v>
       </c>
       <c r="C198">
-        <v>0.52621600000000002</v>
+        <v>0.67455600000000004</v>
       </c>
       <c r="D198">
-        <v>0.51156900000000005</v>
+        <v>0.67018500000000003</v>
       </c>
       <c r="E198">
-        <v>0.51889249999999998</v>
+        <v>0.67237049999999998</v>
       </c>
       <c r="F198">
-        <v>0.52621600000000002</v>
+        <v>0.67455600000000004</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5400,19 +5381,19 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>0.55738100000000002</v>
+        <v>0.69863200000000003</v>
       </c>
       <c r="C199">
-        <v>0.53436799999999995</v>
+        <v>0.69724799999999998</v>
       </c>
       <c r="D199">
-        <v>0.53436799999999995</v>
+        <v>0.69724799999999998</v>
       </c>
       <c r="E199">
-        <v>0.54587450000000004</v>
+        <v>0.69794</v>
       </c>
       <c r="F199">
-        <v>0.55738100000000002</v>
+        <v>0.69863200000000003</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5420,19 +5401,19 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>0.56095600000000001</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C200">
-        <v>0.56093999999999999</v>
+        <v>0.757691</v>
       </c>
       <c r="D200">
-        <v>0.56093999999999999</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="E200">
-        <v>0.560948</v>
+        <v>0.74234549999999999</v>
       </c>
       <c r="F200">
-        <v>0.56095600000000001</v>
+        <v>0.757691</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5440,19 +5421,19 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>0.561276</v>
+        <v>0.84586799999999995</v>
       </c>
       <c r="C201">
-        <v>0.56701500000000005</v>
+        <v>0.83249799999999996</v>
       </c>
       <c r="D201">
-        <v>0.561276</v>
+        <v>0.83249799999999996</v>
       </c>
       <c r="E201">
-        <v>0.56414549999999997</v>
+        <v>0.83918300000000001</v>
       </c>
       <c r="F201">
-        <v>0.56701500000000005</v>
+        <v>0.84586799999999995</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5460,19 +5441,19 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>0.63066</v>
+        <v>0.796288</v>
       </c>
       <c r="C202">
-        <v>0.60686200000000001</v>
+        <v>0.79975099999999999</v>
       </c>
       <c r="D202">
-        <v>0.60686200000000001</v>
+        <v>0.796288</v>
       </c>
       <c r="E202">
-        <v>0.61876100000000001</v>
+        <v>0.79801949999999999</v>
       </c>
       <c r="F202">
-        <v>0.63066</v>
+        <v>0.79975099999999999</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5480,19 +5461,19 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>0.61307199999999995</v>
+        <v>0.81206299999999998</v>
       </c>
       <c r="C203">
-        <v>0.61257499999999998</v>
+        <v>0.80481899999999995</v>
       </c>
       <c r="D203">
-        <v>0.61257499999999998</v>
+        <v>0.80481899999999995</v>
       </c>
       <c r="E203">
-        <v>0.61282349999999997</v>
+        <v>0.80844099999999997</v>
       </c>
       <c r="F203">
-        <v>0.61307199999999995</v>
+        <v>0.81206299999999998</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5500,19 +5481,19 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>0.63351900000000005</v>
+        <v>0.792767</v>
       </c>
       <c r="C204">
-        <v>0.62890199999999996</v>
+        <v>0.799458</v>
       </c>
       <c r="D204">
-        <v>0.62890199999999996</v>
+        <v>0.792767</v>
       </c>
       <c r="E204">
-        <v>0.63121050000000001</v>
+        <v>0.7961125</v>
       </c>
       <c r="F204">
-        <v>0.63351900000000005</v>
+        <v>0.799458</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5520,19 +5501,19 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>0.67018500000000003</v>
+        <v>0.97604100000000005</v>
       </c>
       <c r="C205">
-        <v>0.67455600000000004</v>
+        <v>0.96765800000000002</v>
       </c>
       <c r="D205">
-        <v>0.67018500000000003</v>
+        <v>0.96765800000000002</v>
       </c>
       <c r="E205">
-        <v>0.67237049999999998</v>
+        <v>0.97184950000000003</v>
       </c>
       <c r="F205">
-        <v>0.67455600000000004</v>
+        <v>0.97604100000000005</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5540,19 +5521,19 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>0.69863200000000003</v>
+        <v>0.95751399999999998</v>
       </c>
       <c r="C206">
-        <v>0.69724799999999998</v>
+        <v>0.92781400000000003</v>
       </c>
       <c r="D206">
-        <v>0.69724799999999998</v>
+        <v>0.92781400000000003</v>
       </c>
       <c r="E206">
-        <v>0.69794</v>
+        <v>0.94266399999999995</v>
       </c>
       <c r="F206">
-        <v>0.69863200000000003</v>
+        <v>0.95751399999999998</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5560,19 +5541,19 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.72699999999999998</v>
+        <v>0.99536500000000006</v>
       </c>
       <c r="C207">
-        <v>0.757691</v>
+        <v>0.953515</v>
       </c>
       <c r="D207">
-        <v>0.72699999999999998</v>
+        <v>0.953515</v>
       </c>
       <c r="E207">
-        <v>0.74234549999999999</v>
+        <v>0.97443999999999997</v>
       </c>
       <c r="F207">
-        <v>0.757691</v>
+        <v>0.99536500000000006</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5580,19 +5561,19 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.84586799999999995</v>
+        <v>0.97490399999999999</v>
       </c>
       <c r="C208">
-        <v>0.83249799999999996</v>
+        <v>1.0081500000000001</v>
       </c>
       <c r="D208">
-        <v>0.83249799999999996</v>
+        <v>0.97490399999999999</v>
       </c>
       <c r="E208">
-        <v>0.83918300000000001</v>
+        <v>0.99152700000000005</v>
       </c>
       <c r="F208">
-        <v>0.84586799999999995</v>
+        <v>1.0081500000000001</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5600,19 +5581,19 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>0.796288</v>
+        <v>0.15279999999999999</v>
       </c>
       <c r="C209">
-        <v>0.79975099999999999</v>
+        <v>0.15704399999999999</v>
       </c>
       <c r="D209">
-        <v>0.796288</v>
+        <v>0.15279999999999999</v>
       </c>
       <c r="E209">
-        <v>0.79801949999999999</v>
+        <v>0.154922</v>
       </c>
       <c r="F209">
-        <v>0.79975099999999999</v>
+        <v>0.15704399999999999</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5620,19 +5601,19 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.81206299999999998</v>
+        <v>1.03139</v>
       </c>
       <c r="C210">
-        <v>0.80481899999999995</v>
+        <v>1.0105500000000001</v>
       </c>
       <c r="D210">
-        <v>0.80481899999999995</v>
+        <v>1.0105500000000001</v>
       </c>
       <c r="E210">
-        <v>0.80844099999999997</v>
+        <v>1.0209699999999999</v>
       </c>
       <c r="F210">
-        <v>0.81206299999999998</v>
+        <v>1.03139</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5640,19 +5621,19 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.792767</v>
+        <v>1.14236</v>
       </c>
       <c r="C211">
-        <v>0.799458</v>
+        <v>1.06826</v>
       </c>
       <c r="D211">
-        <v>0.792767</v>
+        <v>1.06826</v>
       </c>
       <c r="E211">
-        <v>0.7961125</v>
+        <v>1.10531</v>
       </c>
       <c r="F211">
-        <v>0.799458</v>
+        <v>1.14236</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5660,19 +5641,19 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.97604100000000005</v>
+        <v>1.0923499999999999</v>
       </c>
       <c r="C212">
-        <v>0.96765800000000002</v>
+        <v>1.09694</v>
       </c>
       <c r="D212">
-        <v>0.96765800000000002</v>
+        <v>1.0923499999999999</v>
       </c>
       <c r="E212">
-        <v>0.97184950000000003</v>
+        <v>1.0946450000000001</v>
       </c>
       <c r="F212">
-        <v>0.97604100000000005</v>
+        <v>1.09694</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5680,19 +5661,19 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>0.95751399999999998</v>
+        <v>1.15944</v>
       </c>
       <c r="C213">
-        <v>0.92781400000000003</v>
+        <v>1.14354</v>
       </c>
       <c r="D213">
-        <v>0.92781400000000003</v>
+        <v>1.14354</v>
       </c>
       <c r="E213">
-        <v>0.94266399999999995</v>
+        <v>1.1514899999999999</v>
       </c>
       <c r="F213">
-        <v>0.95751399999999998</v>
+        <v>1.15944</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5700,19 +5681,19 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>0.99536500000000006</v>
+        <v>1.22984</v>
       </c>
       <c r="C214">
-        <v>0.953515</v>
+        <v>1.23932</v>
       </c>
       <c r="D214">
-        <v>0.953515</v>
+        <v>1.22984</v>
       </c>
       <c r="E214">
-        <v>0.97443999999999997</v>
+        <v>1.23458</v>
       </c>
       <c r="F214">
-        <v>0.99536500000000006</v>
+        <v>1.23932</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5720,19 +5701,19 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>0.97490399999999999</v>
+        <v>1.23892</v>
       </c>
       <c r="C215">
-        <v>1.0081500000000001</v>
+        <v>1.2388300000000001</v>
       </c>
       <c r="D215">
-        <v>0.97490399999999999</v>
+        <v>1.2388300000000001</v>
       </c>
       <c r="E215">
-        <v>0.99152700000000005</v>
+        <v>1.2388749999999999</v>
       </c>
       <c r="F215">
-        <v>1.0081500000000001</v>
+        <v>1.23892</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5740,19 +5721,19 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>0.15279999999999999</v>
+        <v>1.4952399999999999</v>
       </c>
       <c r="C216">
-        <v>0.15704399999999999</v>
+        <v>1.4782</v>
       </c>
       <c r="D216">
-        <v>0.15279999999999999</v>
+        <v>1.4782</v>
       </c>
       <c r="E216">
-        <v>0.154922</v>
+        <v>1.48672</v>
       </c>
       <c r="F216">
-        <v>0.15704399999999999</v>
+        <v>1.4952399999999999</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5760,19 +5741,19 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>1.03139</v>
+        <v>1.399</v>
       </c>
       <c r="C217">
-        <v>1.0105500000000001</v>
+        <v>1.44459</v>
       </c>
       <c r="D217">
-        <v>1.0105500000000001</v>
+        <v>1.399</v>
       </c>
       <c r="E217">
-        <v>1.0209699999999999</v>
+        <v>1.4217949999999999</v>
       </c>
       <c r="F217">
-        <v>1.03139</v>
+        <v>1.44459</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5780,19 +5761,19 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>1.14236</v>
+        <v>1.44896</v>
       </c>
       <c r="C218">
-        <v>1.06826</v>
+        <v>1.4404300000000001</v>
       </c>
       <c r="D218">
-        <v>1.06826</v>
+        <v>1.4404300000000001</v>
       </c>
       <c r="E218">
-        <v>1.10531</v>
+        <v>1.4446950000000001</v>
       </c>
       <c r="F218">
-        <v>1.14236</v>
+        <v>1.44896</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5800,19 +5781,19 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>1.0923499999999999</v>
+        <v>1.4809000000000001</v>
       </c>
       <c r="C219">
-        <v>1.09694</v>
+        <v>1.62222</v>
       </c>
       <c r="D219">
-        <v>1.0923499999999999</v>
+        <v>1.4809000000000001</v>
       </c>
       <c r="E219">
-        <v>1.0946450000000001</v>
+        <v>1.5515600000000001</v>
       </c>
       <c r="F219">
-        <v>1.09694</v>
+        <v>1.62222</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5820,19 +5801,19 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>1.15944</v>
+        <v>1.54742</v>
       </c>
       <c r="C220">
-        <v>1.14354</v>
+        <v>1.55511</v>
       </c>
       <c r="D220">
-        <v>1.14354</v>
+        <v>1.54742</v>
       </c>
       <c r="E220">
-        <v>1.1514899999999999</v>
+        <v>1.5512649999999999</v>
       </c>
       <c r="F220">
-        <v>1.15944</v>
+        <v>1.55511</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5840,19 +5821,19 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>1.22984</v>
+        <v>1.6492899999999999</v>
       </c>
       <c r="C221">
-        <v>1.23932</v>
+        <v>1.69028</v>
       </c>
       <c r="D221">
-        <v>1.22984</v>
+        <v>1.6492899999999999</v>
       </c>
       <c r="E221">
-        <v>1.23458</v>
+        <v>1.6697850000000001</v>
       </c>
       <c r="F221">
-        <v>1.23932</v>
+        <v>1.69028</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5860,19 +5841,19 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>1.23892</v>
+        <v>2.0474700000000001</v>
       </c>
       <c r="C222">
-        <v>1.2388300000000001</v>
+        <v>2.0303399999999998</v>
       </c>
       <c r="D222">
-        <v>1.2388300000000001</v>
+        <v>2.0303399999999998</v>
       </c>
       <c r="E222">
-        <v>1.2388749999999999</v>
+        <v>2.0389050000000002</v>
       </c>
       <c r="F222">
-        <v>1.23892</v>
+        <v>2.0474700000000001</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5880,19 +5861,19 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>1.4952399999999999</v>
+        <v>1.8442499999999999</v>
       </c>
       <c r="C223">
-        <v>1.4782</v>
+        <v>1.86815</v>
       </c>
       <c r="D223">
-        <v>1.4782</v>
+        <v>1.8442499999999999</v>
       </c>
       <c r="E223">
-        <v>1.48672</v>
+        <v>1.8562000000000001</v>
       </c>
       <c r="F223">
-        <v>1.4952399999999999</v>
+        <v>1.86815</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5900,19 +5881,19 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>1.399</v>
+        <v>0.161991</v>
       </c>
       <c r="C224">
-        <v>1.44459</v>
+        <v>0.16206899999999999</v>
       </c>
       <c r="D224">
-        <v>1.399</v>
+        <v>0.161991</v>
       </c>
       <c r="E224">
-        <v>1.4217949999999999</v>
+        <v>0.16203000000000001</v>
       </c>
       <c r="F224">
-        <v>1.44459</v>
+        <v>0.16206899999999999</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5920,19 +5901,19 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>1.44896</v>
+        <v>2.0439699999999998</v>
       </c>
       <c r="C225">
-        <v>1.4404300000000001</v>
+        <v>1.90978</v>
       </c>
       <c r="D225">
-        <v>1.4404300000000001</v>
+        <v>1.90978</v>
       </c>
       <c r="E225">
-        <v>1.4446950000000001</v>
+        <v>1.9768749999999999</v>
       </c>
       <c r="F225">
-        <v>1.44896</v>
+        <v>2.0439699999999998</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5940,19 +5921,19 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>1.4809000000000001</v>
+        <v>2.00806</v>
       </c>
       <c r="C226">
-        <v>1.62222</v>
+        <v>1.99278</v>
       </c>
       <c r="D226">
-        <v>1.4809000000000001</v>
+        <v>1.99278</v>
       </c>
       <c r="E226">
-        <v>1.5515600000000001</v>
+        <v>2.0004200000000001</v>
       </c>
       <c r="F226">
-        <v>1.62222</v>
+        <v>2.00806</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5960,19 +5941,19 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>1.54742</v>
+        <v>2.0849199999999999</v>
       </c>
       <c r="C227">
-        <v>1.55511</v>
+        <v>2.10791</v>
       </c>
       <c r="D227">
-        <v>1.54742</v>
+        <v>2.0849199999999999</v>
       </c>
       <c r="E227">
-        <v>1.5512649999999999</v>
+        <v>2.0964149999999999</v>
       </c>
       <c r="F227">
-        <v>1.55511</v>
+        <v>2.10791</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5980,19 +5961,19 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>1.6492899999999999</v>
+        <v>2.20181</v>
       </c>
       <c r="C228">
-        <v>1.69028</v>
+        <v>2.2564500000000001</v>
       </c>
       <c r="D228">
-        <v>1.6492899999999999</v>
+        <v>2.20181</v>
       </c>
       <c r="E228">
-        <v>1.6697850000000001</v>
+        <v>2.2291300000000001</v>
       </c>
       <c r="F228">
-        <v>1.69028</v>
+        <v>2.2564500000000001</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -6000,19 +5981,19 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>2.0474700000000001</v>
+        <v>2.37534</v>
       </c>
       <c r="C229">
-        <v>2.0303399999999998</v>
+        <v>2.2564700000000002</v>
       </c>
       <c r="D229">
-        <v>2.0303399999999998</v>
+        <v>2.2564700000000002</v>
       </c>
       <c r="E229">
-        <v>2.0389050000000002</v>
+        <v>2.3159049999999999</v>
       </c>
       <c r="F229">
-        <v>2.0474700000000001</v>
+        <v>2.37534</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -6020,19 +6001,19 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>1.8442499999999999</v>
+        <v>2.3974500000000001</v>
       </c>
       <c r="C230">
-        <v>1.86815</v>
+        <v>2.3822800000000002</v>
       </c>
       <c r="D230">
-        <v>1.8442499999999999</v>
+        <v>2.3822800000000002</v>
       </c>
       <c r="E230">
-        <v>1.8562000000000001</v>
+        <v>2.3898649999999999</v>
       </c>
       <c r="F230">
-        <v>1.86815</v>
+        <v>2.3974500000000001</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -6040,19 +6021,19 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>0.161991</v>
+        <v>2.6156899999999998</v>
       </c>
       <c r="C231">
-        <v>0.16206899999999999</v>
+        <v>2.4645700000000001</v>
       </c>
       <c r="D231">
-        <v>0.161991</v>
+        <v>2.4645700000000001</v>
       </c>
       <c r="E231">
-        <v>0.16203000000000001</v>
+        <v>2.54013</v>
       </c>
       <c r="F231">
-        <v>0.16206899999999999</v>
+        <v>2.6156899999999998</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -6060,19 +6041,19 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>2.0439699999999998</v>
+        <v>2.63985</v>
       </c>
       <c r="C232">
-        <v>1.90978</v>
+        <v>2.5723699999999998</v>
       </c>
       <c r="D232">
-        <v>1.90978</v>
+        <v>2.5723699999999998</v>
       </c>
       <c r="E232">
-        <v>1.9768749999999999</v>
+        <v>2.6061100000000001</v>
       </c>
       <c r="F232">
-        <v>2.0439699999999998</v>
+        <v>2.63985</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -6080,19 +6061,19 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>2.00806</v>
+        <v>2.7594599999999998</v>
       </c>
       <c r="C233">
-        <v>1.99278</v>
+        <v>2.7235100000000001</v>
       </c>
       <c r="D233">
-        <v>1.99278</v>
+        <v>2.7235100000000001</v>
       </c>
       <c r="E233">
-        <v>2.0004200000000001</v>
+        <v>2.7414849999999999</v>
       </c>
       <c r="F233">
-        <v>2.00806</v>
+        <v>2.7594599999999998</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -6100,19 +6081,19 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>2.0849199999999999</v>
+        <v>0.17316400000000001</v>
       </c>
       <c r="C234">
-        <v>2.10791</v>
+        <v>0.17032700000000001</v>
       </c>
       <c r="D234">
-        <v>2.0849199999999999</v>
+        <v>0.17032700000000001</v>
       </c>
       <c r="E234">
-        <v>2.0964149999999999</v>
+        <v>0.1717455</v>
       </c>
       <c r="F234">
-        <v>2.10791</v>
+        <v>0.17316400000000001</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -6120,19 +6101,19 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>2.20181</v>
+        <v>2.8304900000000002</v>
       </c>
       <c r="C235">
-        <v>2.2564500000000001</v>
+        <v>2.8506999999999998</v>
       </c>
       <c r="D235">
-        <v>2.20181</v>
+        <v>2.8304900000000002</v>
       </c>
       <c r="E235">
-        <v>2.2291300000000001</v>
+        <v>2.840595</v>
       </c>
       <c r="F235">
-        <v>2.2564500000000001</v>
+        <v>2.8506999999999998</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -6140,19 +6121,19 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>2.37534</v>
+        <v>3.0186700000000002</v>
       </c>
       <c r="C236">
-        <v>2.2564700000000002</v>
+        <v>2.9960200000000001</v>
       </c>
       <c r="D236">
-        <v>2.2564700000000002</v>
+        <v>2.9960200000000001</v>
       </c>
       <c r="E236">
-        <v>2.3159049999999999</v>
+        <v>3.0073449999999999</v>
       </c>
       <c r="F236">
-        <v>2.37534</v>
+        <v>3.0186700000000002</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -6160,19 +6141,19 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>2.3974500000000001</v>
+        <v>3.2490399999999999</v>
       </c>
       <c r="C237">
-        <v>2.3822800000000002</v>
+        <v>3.1688299999999998</v>
       </c>
       <c r="D237">
-        <v>2.3822800000000002</v>
+        <v>3.1688299999999998</v>
       </c>
       <c r="E237">
-        <v>2.3898649999999999</v>
+        <v>3.2089349999999999</v>
       </c>
       <c r="F237">
-        <v>2.3974500000000001</v>
+        <v>3.2490399999999999</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -6180,19 +6161,19 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>2.6156899999999998</v>
+        <v>6.0443199999999999</v>
       </c>
       <c r="C238">
-        <v>2.4645700000000001</v>
+        <v>5.9268799999999997</v>
       </c>
       <c r="D238">
-        <v>2.4645700000000001</v>
+        <v>5.9268799999999997</v>
       </c>
       <c r="E238">
-        <v>2.54013</v>
+        <v>5.9855999999999998</v>
       </c>
       <c r="F238">
-        <v>2.6156899999999998</v>
+        <v>6.0443199999999999</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -6200,19 +6181,19 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>2.63985</v>
+        <v>3.4898799999999999</v>
       </c>
       <c r="C239">
-        <v>2.5723699999999998</v>
+        <v>3.5015200000000002</v>
       </c>
       <c r="D239">
-        <v>2.5723699999999998</v>
+        <v>3.4898799999999999</v>
       </c>
       <c r="E239">
-        <v>2.6061100000000001</v>
+        <v>3.4956999999999998</v>
       </c>
       <c r="F239">
-        <v>2.63985</v>
+        <v>3.5015200000000002</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -6220,19 +6201,19 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>2.7594599999999998</v>
+        <v>3.8705500000000002</v>
       </c>
       <c r="C240">
-        <v>2.7235100000000001</v>
+        <v>3.8026599999999999</v>
       </c>
       <c r="D240">
-        <v>2.7235100000000001</v>
+        <v>3.8026599999999999</v>
       </c>
       <c r="E240">
-        <v>2.7414849999999999</v>
+        <v>3.836605</v>
       </c>
       <c r="F240">
-        <v>2.7594599999999998</v>
+        <v>3.8705500000000002</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -6240,19 +6221,19 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>0.17316400000000001</v>
+        <v>0.17208599999999999</v>
       </c>
       <c r="C241">
-        <v>0.17032700000000001</v>
+        <v>0.16279399999999999</v>
       </c>
       <c r="D241">
-        <v>0.17032700000000001</v>
+        <v>0.16279399999999999</v>
       </c>
       <c r="E241">
-        <v>0.1717455</v>
+        <v>0.16744000000000001</v>
       </c>
       <c r="F241">
-        <v>0.17316400000000001</v>
+        <v>0.17208599999999999</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -6260,19 +6241,19 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>2.8304900000000002</v>
+        <v>3.9140299999999999</v>
       </c>
       <c r="C242">
-        <v>2.8506999999999998</v>
+        <v>3.84131</v>
       </c>
       <c r="D242">
-        <v>2.8304900000000002</v>
+        <v>3.84131</v>
       </c>
       <c r="E242">
-        <v>2.840595</v>
+        <v>3.8776700000000002</v>
       </c>
       <c r="F242">
-        <v>2.8506999999999998</v>
+        <v>3.9140299999999999</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -6280,19 +6261,19 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>3.0186700000000002</v>
+        <v>4.01464</v>
       </c>
       <c r="C243">
-        <v>2.9960200000000001</v>
+        <v>4.0330700000000004</v>
       </c>
       <c r="D243">
-        <v>2.9960200000000001</v>
+        <v>4.01464</v>
       </c>
       <c r="E243">
-        <v>3.0073449999999999</v>
+        <v>4.0238550000000002</v>
       </c>
       <c r="F243">
-        <v>3.0186700000000002</v>
+        <v>4.0330700000000004</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -6300,19 +6281,19 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>3.2490399999999999</v>
+        <v>4.3663699999999999</v>
       </c>
       <c r="C244">
-        <v>3.1688299999999998</v>
+        <v>4.2877799999999997</v>
       </c>
       <c r="D244">
-        <v>3.1688299999999998</v>
+        <v>4.2877799999999997</v>
       </c>
       <c r="E244">
-        <v>3.2089349999999999</v>
+        <v>4.3270749999999998</v>
       </c>
       <c r="F244">
-        <v>3.2490399999999999</v>
+        <v>4.3663699999999999</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -6320,19 +6301,19 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>6.0443199999999999</v>
+        <v>4.4187599999999998</v>
       </c>
       <c r="C245">
-        <v>5.9268799999999997</v>
+        <v>4.5965800000000003</v>
       </c>
       <c r="D245">
-        <v>5.9268799999999997</v>
+        <v>4.4187599999999998</v>
       </c>
       <c r="E245">
-        <v>5.9855999999999998</v>
+        <v>4.5076700000000001</v>
       </c>
       <c r="F245">
-        <v>6.0443199999999999</v>
+        <v>4.5965800000000003</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -6340,19 +6321,19 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>3.4898799999999999</v>
+        <v>0.17883299999999999</v>
       </c>
       <c r="C246">
-        <v>3.5015200000000002</v>
+        <v>0.17651800000000001</v>
       </c>
       <c r="D246">
-        <v>3.4898799999999999</v>
+        <v>0.17651800000000001</v>
       </c>
       <c r="E246">
-        <v>3.4956999999999998</v>
+        <v>0.17767549999999999</v>
       </c>
       <c r="F246">
-        <v>3.5015200000000002</v>
+        <v>0.17883299999999999</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6360,19 +6341,19 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>3.8705500000000002</v>
+        <v>4.73996</v>
       </c>
       <c r="C247">
-        <v>3.8026599999999999</v>
+        <v>4.7535299999999996</v>
       </c>
       <c r="D247">
-        <v>3.8026599999999999</v>
+        <v>4.73996</v>
       </c>
       <c r="E247">
-        <v>3.836605</v>
+        <v>4.7467449999999998</v>
       </c>
       <c r="F247">
-        <v>3.8705500000000002</v>
+        <v>4.7535299999999996</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -6380,19 +6361,19 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>0.17208599999999999</v>
+        <v>4.8771199999999997</v>
       </c>
       <c r="C248">
-        <v>0.16279399999999999</v>
+        <v>5.2484799999999998</v>
       </c>
       <c r="D248">
-        <v>0.16279399999999999</v>
+        <v>4.8771199999999997</v>
       </c>
       <c r="E248">
-        <v>0.16744000000000001</v>
+        <v>5.0627999999999993</v>
       </c>
       <c r="F248">
-        <v>0.17208599999999999</v>
+        <v>5.2484799999999998</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6400,19 +6381,19 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>3.9140299999999999</v>
+        <v>5.2556500000000002</v>
       </c>
       <c r="C249">
-        <v>3.84131</v>
+        <v>5.1571400000000001</v>
       </c>
       <c r="D249">
-        <v>3.84131</v>
+        <v>5.1571400000000001</v>
       </c>
       <c r="E249">
-        <v>3.8776700000000002</v>
+        <v>5.2063950000000014</v>
       </c>
       <c r="F249">
-        <v>3.9140299999999999</v>
+        <v>5.2556500000000002</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6420,19 +6401,19 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>4.01464</v>
+        <v>5.3973300000000002</v>
       </c>
       <c r="C250">
-        <v>4.0330700000000004</v>
+        <v>5.5492800000000004</v>
       </c>
       <c r="D250">
-        <v>4.01464</v>
+        <v>5.3973300000000002</v>
       </c>
       <c r="E250">
-        <v>4.0238550000000002</v>
+        <v>5.4733049999999999</v>
       </c>
       <c r="F250">
-        <v>4.0330700000000004</v>
+        <v>5.5492800000000004</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6440,19 +6421,19 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>4.3663699999999999</v>
+        <v>0.176672</v>
       </c>
       <c r="C251">
-        <v>4.2877799999999997</v>
+        <v>0.19556999999999999</v>
       </c>
       <c r="D251">
-        <v>4.2877799999999997</v>
+        <v>0.176672</v>
       </c>
       <c r="E251">
-        <v>4.3270749999999998</v>
+        <v>0.18612100000000001</v>
       </c>
       <c r="F251">
-        <v>4.3663699999999999</v>
+        <v>0.19556999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6460,19 +6441,19 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>4.4187599999999998</v>
+        <v>5.5735000000000001</v>
       </c>
       <c r="C252">
-        <v>4.5965800000000003</v>
+        <v>5.7221299999999999</v>
       </c>
       <c r="D252">
-        <v>4.4187599999999998</v>
+        <v>5.5735000000000001</v>
       </c>
       <c r="E252">
-        <v>4.5076700000000001</v>
+        <v>5.6478149999999996</v>
       </c>
       <c r="F252">
-        <v>4.5965800000000003</v>
+        <v>5.7221299999999999</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6480,19 +6461,19 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>0.17883299999999999</v>
+        <v>5.9566100000000004</v>
       </c>
       <c r="C253">
-        <v>0.17651800000000001</v>
+        <v>5.8992599999999999</v>
       </c>
       <c r="D253">
-        <v>0.17651800000000001</v>
+        <v>5.8992599999999999</v>
       </c>
       <c r="E253">
-        <v>0.17767549999999999</v>
+        <v>5.9279349999999997</v>
       </c>
       <c r="F253">
-        <v>0.17883299999999999</v>
+        <v>5.9566100000000004</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6500,19 +6481,19 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>4.73996</v>
+        <v>6.2015599999999997</v>
       </c>
       <c r="C254">
-        <v>4.7535299999999996</v>
+        <v>6.3103199999999999</v>
       </c>
       <c r="D254">
-        <v>4.73996</v>
+        <v>6.2015599999999997</v>
       </c>
       <c r="E254">
-        <v>4.7467449999999998</v>
+        <v>6.2559399999999998</v>
       </c>
       <c r="F254">
-        <v>4.7535299999999996</v>
+        <v>6.3103199999999999</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6520,19 +6501,19 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>4.8771199999999997</v>
+        <v>0.192993</v>
       </c>
       <c r="C255">
-        <v>5.2484799999999998</v>
+        <v>0.19300300000000001</v>
       </c>
       <c r="D255">
-        <v>4.8771199999999997</v>
+        <v>0.192993</v>
       </c>
       <c r="E255">
-        <v>5.0627999999999993</v>
+        <v>0.192998</v>
       </c>
       <c r="F255">
-        <v>5.2484799999999998</v>
+        <v>0.19300300000000001</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6540,19 +6521,19 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>5.2556500000000002</v>
+        <v>6.5835499999999998</v>
       </c>
       <c r="C256">
-        <v>5.1571400000000001</v>
+        <v>6.6272500000000001</v>
       </c>
       <c r="D256">
-        <v>5.1571400000000001</v>
+        <v>6.5835499999999998</v>
       </c>
       <c r="E256">
-        <v>5.2063950000000014</v>
+        <v>6.6053999999999986</v>
       </c>
       <c r="F256">
-        <v>5.2556500000000002</v>
+        <v>6.6272500000000001</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6560,19 +6541,19 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>5.3973300000000002</v>
+        <v>6.8257399999999997</v>
       </c>
       <c r="C257">
-        <v>5.5492800000000004</v>
+        <v>6.7359900000000001</v>
       </c>
       <c r="D257">
-        <v>5.3973300000000002</v>
+        <v>6.7359900000000001</v>
       </c>
       <c r="E257">
-        <v>5.4733049999999999</v>
+        <v>6.7808650000000004</v>
       </c>
       <c r="F257">
-        <v>5.5492800000000004</v>
+        <v>6.8257399999999997</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6580,19 +6561,19 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>0.176672</v>
+        <v>7.4143499999999998</v>
       </c>
       <c r="C258">
-        <v>0.19556999999999999</v>
+        <v>7.4967499999999996</v>
       </c>
       <c r="D258">
-        <v>0.176672</v>
+        <v>7.4143499999999998</v>
       </c>
       <c r="E258">
-        <v>0.18612100000000001</v>
+        <v>7.4555499999999997</v>
       </c>
       <c r="F258">
-        <v>0.19556999999999999</v>
+        <v>7.4967499999999996</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6600,19 +6581,19 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>5.5735000000000001</v>
+        <v>0.19466600000000001</v>
       </c>
       <c r="C259">
-        <v>5.7221299999999999</v>
+        <v>0.21068700000000001</v>
       </c>
       <c r="D259">
-        <v>5.5735000000000001</v>
+        <v>0.19466600000000001</v>
       </c>
       <c r="E259">
-        <v>5.6478149999999996</v>
+        <v>0.20267650000000001</v>
       </c>
       <c r="F259">
-        <v>5.7221299999999999</v>
+        <v>0.21068700000000001</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6620,19 +6601,19 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>5.9566100000000004</v>
+        <v>7.6228100000000003</v>
       </c>
       <c r="C260">
-        <v>5.8992599999999999</v>
+        <v>7.5796000000000001</v>
       </c>
       <c r="D260">
-        <v>5.8992599999999999</v>
+        <v>7.5796000000000001</v>
       </c>
       <c r="E260">
-        <v>5.9279349999999997</v>
+        <v>7.6012050000000002</v>
       </c>
       <c r="F260">
-        <v>5.9566100000000004</v>
+        <v>7.6228100000000003</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6640,19 +6621,19 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>6.2015599999999997</v>
+        <v>8.5084</v>
       </c>
       <c r="C261">
-        <v>6.3103199999999999</v>
+        <v>8.2013999999999996</v>
       </c>
       <c r="D261">
-        <v>6.2015599999999997</v>
+        <v>8.2013999999999996</v>
       </c>
       <c r="E261">
-        <v>6.2559399999999998</v>
+        <v>8.3549000000000007</v>
       </c>
       <c r="F261">
-        <v>6.3103199999999999</v>
+        <v>8.5084</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -6660,19 +6641,19 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>0.192993</v>
+        <v>0.21233099999999999</v>
       </c>
       <c r="C262">
-        <v>0.19300300000000001</v>
+        <v>0.21984699999999999</v>
       </c>
       <c r="D262">
-        <v>0.192993</v>
+        <v>0.21233099999999999</v>
       </c>
       <c r="E262">
-        <v>0.192998</v>
+        <v>0.216089</v>
       </c>
       <c r="F262">
-        <v>0.19300300000000001</v>
+        <v>0.21984699999999999</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6680,19 +6661,19 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>6.5835499999999998</v>
+        <v>8.5326299999999993</v>
       </c>
       <c r="C263">
-        <v>6.6272500000000001</v>
+        <v>8.4807100000000002</v>
       </c>
       <c r="D263">
-        <v>6.5835499999999998</v>
+        <v>8.4807100000000002</v>
       </c>
       <c r="E263">
-        <v>6.6053999999999986</v>
+        <v>8.5066699999999997</v>
       </c>
       <c r="F263">
-        <v>6.6272500000000001</v>
+        <v>8.5326299999999993</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -6700,19 +6681,19 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>6.8257399999999997</v>
+        <v>8.9497199999999992</v>
       </c>
       <c r="C264">
-        <v>6.7359900000000001</v>
+        <v>8.9132400000000001</v>
       </c>
       <c r="D264">
-        <v>6.7359900000000001</v>
+        <v>8.9132400000000001</v>
       </c>
       <c r="E264">
-        <v>6.7808650000000004</v>
+        <v>8.9314800000000005</v>
       </c>
       <c r="F264">
-        <v>6.8257399999999997</v>
+        <v>8.9497199999999992</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -6720,19 +6701,19 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7.4143499999999998</v>
+        <v>0.22972100000000001</v>
       </c>
       <c r="C265">
-        <v>7.4967499999999996</v>
+        <v>0.21016899999999999</v>
       </c>
       <c r="D265">
-        <v>7.4143499999999998</v>
+        <v>0.21016899999999999</v>
       </c>
       <c r="E265">
-        <v>7.4555499999999997</v>
+        <v>0.219945</v>
       </c>
       <c r="F265">
-        <v>7.4967499999999996</v>
+        <v>0.22972100000000001</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -6740,19 +6721,19 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>0.19466600000000001</v>
+        <v>9.6073599999999999</v>
       </c>
       <c r="C266">
-        <v>0.21068700000000001</v>
+        <v>9.8957999999999995</v>
       </c>
       <c r="D266">
-        <v>0.19466600000000001</v>
+        <v>9.6073599999999999</v>
       </c>
       <c r="E266">
-        <v>0.20267650000000001</v>
+        <v>9.7515800000000006</v>
       </c>
       <c r="F266">
-        <v>0.21068700000000001</v>
+        <v>9.8957999999999995</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -6760,19 +6741,19 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7.6228100000000003</v>
+        <v>9.8483599999999996</v>
       </c>
       <c r="C267">
-        <v>7.5796000000000001</v>
+        <v>9.9354499999999994</v>
       </c>
       <c r="D267">
-        <v>7.5796000000000001</v>
+        <v>9.8483599999999996</v>
       </c>
       <c r="E267">
-        <v>7.6012050000000002</v>
+        <v>9.8919049999999995</v>
       </c>
       <c r="F267">
-        <v>7.6228100000000003</v>
+        <v>9.9354499999999994</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -6780,19 +6761,19 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>8.5084</v>
+        <v>0.23611299999999999</v>
       </c>
       <c r="C268">
-        <v>8.2013999999999996</v>
+        <v>0.23414299999999999</v>
       </c>
       <c r="D268">
-        <v>8.2013999999999996</v>
+        <v>0.23414299999999999</v>
       </c>
       <c r="E268">
-        <v>8.3549000000000007</v>
+        <v>0.235128</v>
       </c>
       <c r="F268">
-        <v>8.5084</v>
+        <v>0.23611299999999999</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -6800,19 +6781,19 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>0.21233099999999999</v>
+        <v>10.472899999999999</v>
       </c>
       <c r="C269">
-        <v>0.21984699999999999</v>
+        <v>10.432399999999999</v>
       </c>
       <c r="D269">
-        <v>0.21233099999999999</v>
+        <v>10.432399999999999</v>
       </c>
       <c r="E269">
-        <v>0.216089</v>
+        <v>10.45265</v>
       </c>
       <c r="F269">
-        <v>0.21984699999999999</v>
+        <v>10.472899999999999</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -6820,19 +6801,19 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>8.5326299999999993</v>
+        <v>11.113</v>
       </c>
       <c r="C270">
-        <v>8.4807100000000002</v>
+        <v>11.0501</v>
       </c>
       <c r="D270">
-        <v>8.4807100000000002</v>
+        <v>11.0501</v>
       </c>
       <c r="E270">
-        <v>8.5066699999999997</v>
+        <v>11.08155</v>
       </c>
       <c r="F270">
-        <v>8.5326299999999993</v>
+        <v>11.113</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -6840,19 +6821,19 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8.9497199999999992</v>
+        <v>0.245056</v>
       </c>
       <c r="C271">
-        <v>8.9132400000000001</v>
+        <v>0.24649299999999999</v>
       </c>
       <c r="D271">
-        <v>8.9132400000000001</v>
+        <v>0.245056</v>
       </c>
       <c r="E271">
-        <v>8.9314800000000005</v>
+        <v>0.24577450000000001</v>
       </c>
       <c r="F271">
-        <v>8.9497199999999992</v>
+        <v>0.24649299999999999</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -6860,19 +6841,19 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>0.22972100000000001</v>
+        <v>11.869300000000001</v>
       </c>
       <c r="C272">
-        <v>0.21016899999999999</v>
+        <v>11.7918</v>
       </c>
       <c r="D272">
-        <v>0.21016899999999999</v>
+        <v>11.7918</v>
       </c>
       <c r="E272">
-        <v>0.219945</v>
+        <v>11.830550000000001</v>
       </c>
       <c r="F272">
-        <v>0.22972100000000001</v>
+        <v>11.869300000000001</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -6880,19 +6861,19 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>9.6073599999999999</v>
+        <v>12.259</v>
       </c>
       <c r="C273">
-        <v>9.8957999999999995</v>
+        <v>12.193199999999999</v>
       </c>
       <c r="D273">
-        <v>9.6073599999999999</v>
+        <v>12.193199999999999</v>
       </c>
       <c r="E273">
-        <v>9.7515800000000006</v>
+        <v>12.226100000000001</v>
       </c>
       <c r="F273">
-        <v>9.8957999999999995</v>
+        <v>12.259</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -6900,19 +6881,19 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>9.8483599999999996</v>
+        <v>0.24462100000000001</v>
       </c>
       <c r="C274">
-        <v>9.9354499999999994</v>
+        <v>0.26051600000000003</v>
       </c>
       <c r="D274">
-        <v>9.8483599999999996</v>
+        <v>0.24462100000000001</v>
       </c>
       <c r="E274">
-        <v>9.8919049999999995</v>
+        <v>0.25256849999999997</v>
       </c>
       <c r="F274">
-        <v>9.9354499999999994</v>
+        <v>0.26051600000000003</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -6920,19 +6901,19 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>0.23611299999999999</v>
+        <v>12.981</v>
       </c>
       <c r="C275">
-        <v>0.23414299999999999</v>
+        <v>12.8552</v>
       </c>
       <c r="D275">
-        <v>0.23414299999999999</v>
+        <v>12.8552</v>
       </c>
       <c r="E275">
-        <v>0.235128</v>
+        <v>12.918100000000001</v>
       </c>
       <c r="F275">
-        <v>0.23611299999999999</v>
+        <v>12.981</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -6940,19 +6921,19 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>10.472899999999999</v>
+        <v>0.25262899999999999</v>
       </c>
       <c r="C276">
-        <v>10.432399999999999</v>
+        <v>0.25139299999999998</v>
       </c>
       <c r="D276">
-        <v>10.432399999999999</v>
+        <v>0.25139299999999998</v>
       </c>
       <c r="E276">
-        <v>10.45265</v>
+        <v>0.25201099999999999</v>
       </c>
       <c r="F276">
-        <v>10.472899999999999</v>
+        <v>0.25262899999999999</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -6960,19 +6941,19 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>11.113</v>
+        <v>13.359299999999999</v>
       </c>
       <c r="C277">
-        <v>11.0501</v>
+        <v>14.255100000000001</v>
       </c>
       <c r="D277">
-        <v>11.0501</v>
+        <v>13.359299999999999</v>
       </c>
       <c r="E277">
-        <v>11.08155</v>
+        <v>13.8072</v>
       </c>
       <c r="F277">
-        <v>11.113</v>
+        <v>14.255100000000001</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -6980,19 +6961,19 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>0.245056</v>
+        <v>15.1221</v>
       </c>
       <c r="C278">
-        <v>0.24649299999999999</v>
+        <v>14.875</v>
       </c>
       <c r="D278">
-        <v>0.245056</v>
+        <v>14.875</v>
       </c>
       <c r="E278">
-        <v>0.24577450000000001</v>
+        <v>14.99855</v>
       </c>
       <c r="F278">
-        <v>0.24649299999999999</v>
+        <v>15.1221</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -7000,19 +6981,19 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>11.869300000000001</v>
+        <v>0.26695000000000002</v>
       </c>
       <c r="C279">
-        <v>11.7918</v>
+        <v>0.26516699999999999</v>
       </c>
       <c r="D279">
-        <v>11.7918</v>
+        <v>0.26516699999999999</v>
       </c>
       <c r="E279">
-        <v>11.830550000000001</v>
+        <v>0.26605849999999998</v>
       </c>
       <c r="F279">
-        <v>11.869300000000001</v>
+        <v>0.26695000000000002</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -7020,19 +7001,19 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>12.259</v>
+        <v>15.2576</v>
       </c>
       <c r="C280">
-        <v>12.193199999999999</v>
+        <v>15.1785</v>
       </c>
       <c r="D280">
-        <v>12.193199999999999</v>
+        <v>15.1785</v>
       </c>
       <c r="E280">
-        <v>12.226100000000001</v>
+        <v>15.21805</v>
       </c>
       <c r="F280">
-        <v>12.259</v>
+        <v>15.2576</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -7040,19 +7021,19 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>0.24462100000000001</v>
+        <v>0.33488899999999999</v>
       </c>
       <c r="C281">
-        <v>0.26051600000000003</v>
+        <v>0.27862399999999998</v>
       </c>
       <c r="D281">
-        <v>0.24462100000000001</v>
+        <v>0.27862399999999998</v>
       </c>
       <c r="E281">
-        <v>0.25256849999999997</v>
+        <v>0.30675649999999999</v>
       </c>
       <c r="F281">
-        <v>0.26051600000000003</v>
+        <v>0.33488899999999999</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -7060,19 +7041,19 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>12.981</v>
+        <v>15.787800000000001</v>
       </c>
       <c r="C282">
-        <v>12.8552</v>
+        <v>15.487299999999999</v>
       </c>
       <c r="D282">
-        <v>12.8552</v>
+        <v>15.487299999999999</v>
       </c>
       <c r="E282">
-        <v>12.918100000000001</v>
+        <v>15.637549999999999</v>
       </c>
       <c r="F282">
-        <v>12.981</v>
+        <v>15.787800000000001</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -7080,19 +7061,19 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>0.25262899999999999</v>
+        <v>0.29464699999999999</v>
       </c>
       <c r="C283">
-        <v>0.25139299999999998</v>
+        <v>0.31058799999999998</v>
       </c>
       <c r="D283">
-        <v>0.25139299999999998</v>
+        <v>0.29464699999999999</v>
       </c>
       <c r="E283">
-        <v>0.25201099999999999</v>
+        <v>0.30261749999999998</v>
       </c>
       <c r="F283">
-        <v>0.25262899999999999</v>
+        <v>0.31058799999999998</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -7100,19 +7081,19 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>13.359299999999999</v>
+        <v>21.797999999999998</v>
       </c>
       <c r="C284">
-        <v>14.255100000000001</v>
+        <v>21.6096</v>
       </c>
       <c r="D284">
-        <v>13.359299999999999</v>
+        <v>21.6096</v>
       </c>
       <c r="E284">
-        <v>13.8072</v>
+        <v>21.703800000000001</v>
       </c>
       <c r="F284">
-        <v>14.255100000000001</v>
+        <v>21.797999999999998</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -7120,19 +7101,19 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>15.1221</v>
+        <v>0.30559199999999997</v>
       </c>
       <c r="C285">
-        <v>14.875</v>
+        <v>0.331648</v>
       </c>
       <c r="D285">
-        <v>14.875</v>
+        <v>0.30559199999999997</v>
       </c>
       <c r="E285">
-        <v>14.99855</v>
+        <v>0.31862000000000001</v>
       </c>
       <c r="F285">
-        <v>15.1221</v>
+        <v>0.331648</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -7140,19 +7121,19 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>0.26695000000000002</v>
+        <v>17.9817</v>
       </c>
       <c r="C286">
-        <v>0.26516699999999999</v>
+        <v>18.015599999999999</v>
       </c>
       <c r="D286">
-        <v>0.26516699999999999</v>
+        <v>17.9817</v>
       </c>
       <c r="E286">
-        <v>0.26605849999999998</v>
+        <v>17.998650000000001</v>
       </c>
       <c r="F286">
-        <v>0.26695000000000002</v>
+        <v>18.015599999999999</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -7160,19 +7141,19 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>15.2576</v>
+        <v>18.799600000000002</v>
       </c>
       <c r="C287">
-        <v>15.1785</v>
+        <v>18.535900000000002</v>
       </c>
       <c r="D287">
-        <v>15.1785</v>
+        <v>18.535900000000002</v>
       </c>
       <c r="E287">
-        <v>15.21805</v>
+        <v>18.667750000000002</v>
       </c>
       <c r="F287">
-        <v>15.2576</v>
+        <v>18.799600000000002</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -7180,19 +7161,19 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>0.33488899999999999</v>
+        <v>0.31332300000000002</v>
       </c>
       <c r="C288">
-        <v>0.27862399999999998</v>
+        <v>0.33800599999999997</v>
       </c>
       <c r="D288">
-        <v>0.27862399999999998</v>
+        <v>0.31332300000000002</v>
       </c>
       <c r="E288">
-        <v>0.30675649999999999</v>
+        <v>0.32566450000000002</v>
       </c>
       <c r="F288">
-        <v>0.33488899999999999</v>
+        <v>0.33800599999999997</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -7200,19 +7181,19 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>15.787800000000001</v>
+        <v>19.825600000000001</v>
       </c>
       <c r="C289">
-        <v>15.487299999999999</v>
+        <v>20.323599999999999</v>
       </c>
       <c r="D289">
-        <v>15.487299999999999</v>
+        <v>19.825600000000001</v>
       </c>
       <c r="E289">
-        <v>15.637549999999999</v>
+        <v>20.0746</v>
       </c>
       <c r="F289">
-        <v>15.787800000000001</v>
+        <v>20.323599999999999</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -7220,19 +7201,19 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>0.29464699999999999</v>
+        <v>0.31170999999999999</v>
       </c>
       <c r="C290">
-        <v>0.31058799999999998</v>
+        <v>0.34095500000000001</v>
       </c>
       <c r="D290">
-        <v>0.29464699999999999</v>
+        <v>0.31170999999999999</v>
       </c>
       <c r="E290">
-        <v>0.30261749999999998</v>
+        <v>0.32633250000000003</v>
       </c>
       <c r="F290">
-        <v>0.31058799999999998</v>
+        <v>0.34095500000000001</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -7240,19 +7221,19 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>21.797999999999998</v>
+        <v>54.864100000000001</v>
       </c>
       <c r="C291">
-        <v>21.6096</v>
+        <v>54.951000000000001</v>
       </c>
       <c r="D291">
-        <v>21.6096</v>
+        <v>54.864100000000001</v>
       </c>
       <c r="E291">
-        <v>21.703800000000001</v>
+        <v>54.907550000000001</v>
       </c>
       <c r="F291">
-        <v>21.797999999999998</v>
+        <v>54.951000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -7260,19 +7241,19 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>0.30559199999999997</v>
+        <v>0.32222899999999999</v>
       </c>
       <c r="C292">
-        <v>0.331648</v>
+        <v>0.327069</v>
       </c>
       <c r="D292">
-        <v>0.30559199999999997</v>
+        <v>0.32222899999999999</v>
       </c>
       <c r="E292">
-        <v>0.31862000000000001</v>
+        <v>0.32464900000000002</v>
       </c>
       <c r="F292">
-        <v>0.331648</v>
+        <v>0.327069</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -7280,19 +7261,19 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>17.9817</v>
+        <v>22.144400000000001</v>
       </c>
       <c r="C293">
-        <v>18.015599999999999</v>
+        <v>22.138300000000001</v>
       </c>
       <c r="D293">
-        <v>17.9817</v>
+        <v>22.138300000000001</v>
       </c>
       <c r="E293">
-        <v>17.998650000000001</v>
+        <v>22.141349999999999</v>
       </c>
       <c r="F293">
-        <v>18.015599999999999</v>
+        <v>22.144400000000001</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -7300,19 +7281,19 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>18.799600000000002</v>
+        <v>0.32304500000000003</v>
       </c>
       <c r="C294">
-        <v>18.535900000000002</v>
+        <v>0.29188900000000001</v>
       </c>
       <c r="D294">
-        <v>18.535900000000002</v>
+        <v>0.29188900000000001</v>
       </c>
       <c r="E294">
-        <v>18.667750000000002</v>
+        <v>0.30746699999999999</v>
       </c>
       <c r="F294">
-        <v>18.799600000000002</v>
+        <v>0.32304500000000003</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -7320,19 +7301,19 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>0.31332300000000002</v>
+        <v>0.30763800000000002</v>
       </c>
       <c r="C295">
-        <v>0.33800599999999997</v>
+        <v>0.29637000000000002</v>
       </c>
       <c r="D295">
-        <v>0.31332300000000002</v>
+        <v>0.29637000000000002</v>
       </c>
       <c r="E295">
-        <v>0.32566450000000002</v>
+        <v>0.30200400000000011</v>
       </c>
       <c r="F295">
-        <v>0.33800599999999997</v>
+        <v>0.30763800000000002</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -7340,19 +7321,19 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>19.825600000000001</v>
+        <v>23.530200000000001</v>
       </c>
       <c r="C296">
-        <v>20.323599999999999</v>
+        <v>23.385899999999999</v>
       </c>
       <c r="D296">
-        <v>19.825600000000001</v>
+        <v>23.385899999999999</v>
       </c>
       <c r="E296">
-        <v>20.0746</v>
+        <v>23.45805</v>
       </c>
       <c r="F296">
-        <v>20.323599999999999</v>
+        <v>23.530200000000001</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -7360,19 +7341,19 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>0.31170999999999999</v>
+        <v>0.30160900000000002</v>
       </c>
       <c r="C297">
-        <v>0.34095500000000001</v>
+        <v>0.29971100000000001</v>
       </c>
       <c r="D297">
-        <v>0.31170999999999999</v>
+        <v>0.29971100000000001</v>
       </c>
       <c r="E297">
-        <v>0.32633250000000003</v>
+        <v>0.30065999999999998</v>
       </c>
       <c r="F297">
-        <v>0.34095500000000001</v>
+        <v>0.30160900000000002</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -7380,19 +7361,19 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>54.864100000000001</v>
+        <v>24.063800000000001</v>
       </c>
       <c r="C298">
-        <v>54.951000000000001</v>
+        <v>24.161100000000001</v>
       </c>
       <c r="D298">
-        <v>54.864100000000001</v>
+        <v>24.063800000000001</v>
       </c>
       <c r="E298">
-        <v>54.907550000000001</v>
+        <v>24.112449999999999</v>
       </c>
       <c r="F298">
-        <v>54.951000000000001</v>
+        <v>24.161100000000001</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -7400,19 +7381,19 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>0.32222899999999999</v>
+        <v>0.42369699999999999</v>
       </c>
       <c r="C299">
-        <v>0.327069</v>
+        <v>0.43745899999999999</v>
       </c>
       <c r="D299">
-        <v>0.32222899999999999</v>
+        <v>0.42369699999999999</v>
       </c>
       <c r="E299">
-        <v>0.32464900000000002</v>
+        <v>0.43057800000000002</v>
       </c>
       <c r="F299">
-        <v>0.327069</v>
+        <v>0.43745899999999999</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -7420,19 +7401,19 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>22.144400000000001</v>
+        <v>27.072800000000001</v>
       </c>
       <c r="C300">
-        <v>22.138300000000001</v>
+        <v>26.83</v>
       </c>
       <c r="D300">
-        <v>22.138300000000001</v>
+        <v>26.83</v>
       </c>
       <c r="E300">
-        <v>22.141349999999999</v>
+        <v>26.9514</v>
       </c>
       <c r="F300">
-        <v>22.144400000000001</v>
+        <v>27.072800000000001</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -7440,19 +7421,19 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>0.32304500000000003</v>
+        <v>64.352099999999993</v>
       </c>
       <c r="C301">
-        <v>0.29188900000000001</v>
+        <v>63.651499999999999</v>
       </c>
       <c r="D301">
-        <v>0.29188900000000001</v>
+        <v>63.651499999999999</v>
       </c>
       <c r="E301">
-        <v>0.30746699999999999</v>
+        <v>64.001800000000003</v>
       </c>
       <c r="F301">
-        <v>0.32304500000000003</v>
+        <v>64.352099999999993</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -7460,19 +7441,19 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>0.30763800000000002</v>
+        <v>29.218</v>
       </c>
       <c r="C302">
-        <v>0.29637000000000002</v>
+        <v>28.743300000000001</v>
       </c>
       <c r="D302">
-        <v>0.29637000000000002</v>
+        <v>28.743300000000001</v>
       </c>
       <c r="E302">
-        <v>0.30200400000000011</v>
+        <v>28.980650000000001</v>
       </c>
       <c r="F302">
-        <v>0.30763800000000002</v>
+        <v>29.218</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -7480,19 +7461,19 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>23.530200000000001</v>
+        <v>30.390899999999998</v>
       </c>
       <c r="C303">
-        <v>23.385899999999999</v>
+        <v>29.904499999999999</v>
       </c>
       <c r="D303">
-        <v>23.385899999999999</v>
+        <v>29.904499999999999</v>
       </c>
       <c r="E303">
-        <v>23.45805</v>
+        <v>30.1477</v>
       </c>
       <c r="F303">
-        <v>23.530200000000001</v>
+        <v>30.390899999999998</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -7500,19 +7481,19 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>0.30160900000000002</v>
+        <v>32.562800000000003</v>
       </c>
       <c r="C304">
-        <v>0.29971100000000001</v>
+        <v>32.463200000000001</v>
       </c>
       <c r="D304">
-        <v>0.29971100000000001</v>
+        <v>32.463200000000001</v>
       </c>
       <c r="E304">
-        <v>0.30065999999999998</v>
+        <v>32.513000000000012</v>
       </c>
       <c r="F304">
-        <v>0.30160900000000002</v>
+        <v>32.562800000000003</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -7520,19 +7501,19 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>24.063800000000001</v>
+        <v>35.111800000000002</v>
       </c>
       <c r="C305">
-        <v>24.161100000000001</v>
+        <v>34.093899999999998</v>
       </c>
       <c r="D305">
-        <v>24.063800000000001</v>
+        <v>34.093899999999998</v>
       </c>
       <c r="E305">
-        <v>24.112449999999999</v>
+        <v>34.602849999999997</v>
       </c>
       <c r="F305">
-        <v>24.161100000000001</v>
+        <v>35.111800000000002</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -7540,19 +7521,19 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>0.42369699999999999</v>
+        <v>35.760399999999997</v>
       </c>
       <c r="C306">
-        <v>0.43745899999999999</v>
+        <v>35.315199999999997</v>
       </c>
       <c r="D306">
-        <v>0.42369699999999999</v>
+        <v>35.315199999999997</v>
       </c>
       <c r="E306">
-        <v>0.43057800000000002</v>
+        <v>35.537799999999997</v>
       </c>
       <c r="F306">
-        <v>0.43745899999999999</v>
+        <v>35.760399999999997</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -7560,19 +7541,19 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>27.072800000000001</v>
+        <v>38.187600000000003</v>
       </c>
       <c r="C307">
-        <v>26.83</v>
+        <v>37.873100000000001</v>
       </c>
       <c r="D307">
-        <v>26.83</v>
+        <v>37.873100000000001</v>
       </c>
       <c r="E307">
-        <v>26.9514</v>
+        <v>38.030349999999999</v>
       </c>
       <c r="F307">
-        <v>27.072800000000001</v>
+        <v>38.187600000000003</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -7580,19 +7561,19 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>64.352099999999993</v>
+        <v>40.468299999999999</v>
       </c>
       <c r="C308">
-        <v>63.651499999999999</v>
+        <v>39.625999999999998</v>
       </c>
       <c r="D308">
-        <v>63.651499999999999</v>
+        <v>39.625999999999998</v>
       </c>
       <c r="E308">
-        <v>64.001800000000003</v>
+        <v>40.047150000000002</v>
       </c>
       <c r="F308">
-        <v>64.352099999999993</v>
+        <v>40.468299999999999</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -7600,19 +7581,19 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>29.218</v>
+        <v>42.936399999999999</v>
       </c>
       <c r="C309">
-        <v>28.743300000000001</v>
+        <v>43.151600000000002</v>
       </c>
       <c r="D309">
-        <v>28.743300000000001</v>
+        <v>42.936399999999999</v>
       </c>
       <c r="E309">
-        <v>28.980650000000001</v>
+        <v>43.043999999999997</v>
       </c>
       <c r="F309">
-        <v>29.218</v>
+        <v>43.151600000000002</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -7620,19 +7601,19 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>30.390899999999998</v>
+        <v>47.349299999999999</v>
       </c>
       <c r="C310">
-        <v>29.904499999999999</v>
+        <v>47.088200000000001</v>
       </c>
       <c r="D310">
-        <v>29.904499999999999</v>
+        <v>47.088200000000001</v>
       </c>
       <c r="E310">
-        <v>30.1477</v>
+        <v>47.21875</v>
       </c>
       <c r="F310">
-        <v>30.390899999999998</v>
+        <v>47.349299999999999</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -7640,19 +7621,19 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>32.562800000000003</v>
+        <v>49.714199999999998</v>
       </c>
       <c r="C311">
-        <v>32.463200000000001</v>
+        <v>50.043399999999998</v>
       </c>
       <c r="D311">
-        <v>32.463200000000001</v>
+        <v>49.714199999999998</v>
       </c>
       <c r="E311">
-        <v>32.513000000000012</v>
+        <v>49.878799999999998</v>
       </c>
       <c r="F311">
-        <v>32.562800000000003</v>
+        <v>50.043399999999998</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -7660,19 +7641,19 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>35.111800000000002</v>
+        <v>51.295400000000001</v>
       </c>
       <c r="C312">
-        <v>34.093899999999998</v>
+        <v>51.948500000000003</v>
       </c>
       <c r="D312">
-        <v>34.093899999999998</v>
+        <v>51.295400000000001</v>
       </c>
       <c r="E312">
-        <v>34.602849999999997</v>
+        <v>51.621949999999998</v>
       </c>
       <c r="F312">
-        <v>35.111800000000002</v>
+        <v>51.948500000000003</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -7680,19 +7661,19 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>35.760399999999997</v>
+        <v>54.055599999999998</v>
       </c>
       <c r="C313">
-        <v>35.315199999999997</v>
+        <v>53.5535</v>
       </c>
       <c r="D313">
-        <v>35.315199999999997</v>
+        <v>53.5535</v>
       </c>
       <c r="E313">
-        <v>35.537799999999997</v>
+        <v>53.804549999999999</v>
       </c>
       <c r="F313">
-        <v>35.760399999999997</v>
+        <v>54.055599999999998</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -7700,19 +7681,19 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>38.187600000000003</v>
+        <v>68.519599999999997</v>
       </c>
       <c r="C314">
-        <v>37.873100000000001</v>
+        <v>68.352699999999999</v>
       </c>
       <c r="D314">
-        <v>37.873100000000001</v>
+        <v>68.352699999999999</v>
       </c>
       <c r="E314">
-        <v>38.030349999999999</v>
+        <v>68.436149999999998</v>
       </c>
       <c r="F314">
-        <v>38.187600000000003</v>
+        <v>68.519599999999997</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -7720,19 +7701,19 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>40.468299999999999</v>
+        <v>60.787799999999997</v>
       </c>
       <c r="C315">
-        <v>39.625999999999998</v>
+        <v>61.447899999999997</v>
       </c>
       <c r="D315">
-        <v>39.625999999999998</v>
+        <v>60.787799999999997</v>
       </c>
       <c r="E315">
-        <v>40.047150000000002</v>
+        <v>61.117849999999997</v>
       </c>
       <c r="F315">
-        <v>40.468299999999999</v>
+        <v>61.447899999999997</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -7740,19 +7721,19 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>42.936399999999999</v>
+        <v>70.023899999999998</v>
       </c>
       <c r="C316">
-        <v>43.151600000000002</v>
+        <v>67.927800000000005</v>
       </c>
       <c r="D316">
-        <v>42.936399999999999</v>
+        <v>67.927800000000005</v>
       </c>
       <c r="E316">
-        <v>43.043999999999997</v>
+        <v>68.975850000000008</v>
       </c>
       <c r="F316">
-        <v>43.151600000000002</v>
+        <v>70.023899999999998</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -7760,19 +7741,19 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>47.349299999999999</v>
+        <v>67.299499999999995</v>
       </c>
       <c r="C317">
-        <v>47.088200000000001</v>
+        <v>67.251099999999994</v>
       </c>
       <c r="D317">
-        <v>47.088200000000001</v>
+        <v>67.251099999999994</v>
       </c>
       <c r="E317">
-        <v>47.21875</v>
+        <v>67.275299999999987</v>
       </c>
       <c r="F317">
-        <v>47.349299999999999</v>
+        <v>67.299499999999995</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -7780,19 +7761,19 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>49.714199999999998</v>
+        <v>71.560100000000006</v>
       </c>
       <c r="C318">
-        <v>50.043399999999998</v>
+        <v>70.777600000000007</v>
       </c>
       <c r="D318">
-        <v>49.714199999999998</v>
+        <v>70.777600000000007</v>
       </c>
       <c r="E318">
-        <v>49.878799999999998</v>
+        <v>71.168850000000006</v>
       </c>
       <c r="F318">
-        <v>50.043399999999998</v>
+        <v>71.560100000000006</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -7800,19 +7781,19 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>51.295400000000001</v>
+        <v>76.610799999999998</v>
       </c>
       <c r="C319">
-        <v>51.948500000000003</v>
+        <v>76.900999999999996</v>
       </c>
       <c r="D319">
-        <v>51.295400000000001</v>
+        <v>76.610799999999998</v>
       </c>
       <c r="E319">
-        <v>51.621949999999998</v>
+        <v>76.755899999999997</v>
       </c>
       <c r="F319">
-        <v>51.948500000000003</v>
+        <v>76.900999999999996</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -7820,19 +7801,19 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>54.055599999999998</v>
+        <v>79.337299999999999</v>
       </c>
       <c r="C320">
-        <v>53.5535</v>
+        <v>79.908100000000005</v>
       </c>
       <c r="D320">
-        <v>53.5535</v>
+        <v>79.337299999999999</v>
       </c>
       <c r="E320">
-        <v>53.804549999999999</v>
+        <v>79.622700000000009</v>
       </c>
       <c r="F320">
-        <v>54.055599999999998</v>
+        <v>79.908100000000005</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -7840,19 +7821,19 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>68.519599999999997</v>
+        <v>85.179000000000002</v>
       </c>
       <c r="C321">
-        <v>68.352699999999999</v>
+        <v>83.972099999999998</v>
       </c>
       <c r="D321">
-        <v>68.352699999999999</v>
+        <v>83.972099999999998</v>
       </c>
       <c r="E321">
-        <v>68.436149999999998</v>
+        <v>84.575549999999993</v>
       </c>
       <c r="F321">
-        <v>68.519599999999997</v>
+        <v>85.179000000000002</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -7860,19 +7841,19 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>60.787799999999997</v>
+        <v>245.33099999999999</v>
       </c>
       <c r="C322">
-        <v>61.447899999999997</v>
+        <v>246.37100000000001</v>
       </c>
       <c r="D322">
-        <v>60.787799999999997</v>
+        <v>245.33099999999999</v>
       </c>
       <c r="E322">
-        <v>61.117849999999997</v>
+        <v>245.851</v>
       </c>
       <c r="F322">
-        <v>61.447899999999997</v>
+        <v>246.37100000000001</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -7880,19 +7861,19 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>70.023899999999998</v>
+        <v>89.03</v>
       </c>
       <c r="C323">
-        <v>67.927800000000005</v>
+        <v>89.292000000000002</v>
       </c>
       <c r="D323">
-        <v>67.927800000000005</v>
+        <v>89.03</v>
       </c>
       <c r="E323">
-        <v>68.975850000000008</v>
+        <v>89.161000000000001</v>
       </c>
       <c r="F323">
-        <v>70.023899999999998</v>
+        <v>89.292000000000002</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -7900,19 +7881,19 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>67.299499999999995</v>
+        <v>103.17700000000001</v>
       </c>
       <c r="C324">
-        <v>67.251099999999994</v>
+        <v>101.092</v>
       </c>
       <c r="D324">
-        <v>67.251099999999994</v>
+        <v>101.092</v>
       </c>
       <c r="E324">
-        <v>67.275299999999987</v>
+        <v>102.1345</v>
       </c>
       <c r="F324">
-        <v>67.299499999999995</v>
+        <v>103.17700000000001</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7920,19 +7901,19 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>71.560100000000006</v>
+        <v>130.41999999999999</v>
       </c>
       <c r="C325">
-        <v>70.777600000000007</v>
+        <v>130.178</v>
       </c>
       <c r="D325">
-        <v>70.777600000000007</v>
+        <v>130.178</v>
       </c>
       <c r="E325">
-        <v>71.168850000000006</v>
+        <v>130.29900000000001</v>
       </c>
       <c r="F325">
-        <v>71.560100000000006</v>
+        <v>130.41999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7940,19 +7921,19 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>76.610799999999998</v>
+        <v>113.736</v>
       </c>
       <c r="C326">
-        <v>76.900999999999996</v>
+        <v>112.70399999999999</v>
       </c>
       <c r="D326">
-        <v>76.610799999999998</v>
+        <v>112.70399999999999</v>
       </c>
       <c r="E326">
-        <v>76.755899999999997</v>
+        <v>113.22</v>
       </c>
       <c r="F326">
-        <v>76.900999999999996</v>
+        <v>113.736</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,19 +7941,19 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>79.337299999999999</v>
+        <v>117.431</v>
       </c>
       <c r="C327">
-        <v>79.908100000000005</v>
+        <v>117.43300000000001</v>
       </c>
       <c r="D327">
-        <v>79.337299999999999</v>
+        <v>117.431</v>
       </c>
       <c r="E327">
-        <v>79.622700000000009</v>
+        <v>117.432</v>
       </c>
       <c r="F327">
-        <v>79.908100000000005</v>
+        <v>117.43300000000001</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,277 +7961,109 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>85.179000000000002</v>
+        <v>119.44</v>
       </c>
       <c r="C328">
-        <v>83.972099999999998</v>
+        <v>118.2</v>
       </c>
       <c r="D328">
-        <v>83.972099999999998</v>
+        <v>118.2</v>
       </c>
       <c r="E328">
-        <v>84.575549999999993</v>
+        <v>118.82</v>
       </c>
       <c r="F328">
-        <v>85.179000000000002</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+        <v>119.44</v>
+      </c>
+    </row>
+    <row r="339" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H339" t="s">
         <v>333</v>
       </c>
-      <c r="B329">
-        <v>245.33099999999999</v>
-      </c>
-      <c r="C329">
-        <v>246.37100000000001</v>
-      </c>
-      <c r="D329">
-        <v>245.33099999999999</v>
-      </c>
-      <c r="E329">
-        <v>245.851</v>
-      </c>
-      <c r="F329">
-        <v>246.37100000000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="I339">
+        <f>AVERAGE(E177:E183)</f>
+        <v>0.37663414285714286</v>
+      </c>
+    </row>
+    <row r="340" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H340" t="s">
         <v>334</v>
       </c>
-      <c r="B330">
-        <v>89.03</v>
-      </c>
-      <c r="C330">
-        <v>89.292000000000002</v>
-      </c>
-      <c r="D330">
-        <v>89.03</v>
-      </c>
-      <c r="E330">
-        <v>89.161000000000001</v>
-      </c>
-      <c r="F330">
-        <v>89.292000000000002</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="I340">
+        <f>AVERAGE(E3:E176)</f>
+        <v>246.03922181034483</v>
+      </c>
+    </row>
+    <row r="341" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H341" t="s">
         <v>335</v>
       </c>
-      <c r="B331">
-        <v>103.17700000000001</v>
-      </c>
-      <c r="C331">
-        <v>101.092</v>
-      </c>
-      <c r="D331">
-        <v>101.092</v>
-      </c>
-      <c r="E331">
-        <v>102.1345</v>
-      </c>
-      <c r="F331">
-        <v>103.17700000000001</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="I341">
+        <f>AVERAGE(E184:E328)</f>
+        <v>17.982175727586206</v>
+      </c>
+    </row>
+    <row r="342" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H342" t="s">
         <v>336</v>
       </c>
-      <c r="B332">
-        <v>130.41999999999999</v>
-      </c>
-      <c r="C332">
-        <v>130.178</v>
-      </c>
-      <c r="D332">
-        <v>130.178</v>
-      </c>
-      <c r="E332">
-        <v>130.29900000000001</v>
-      </c>
-      <c r="F332">
-        <v>130.41999999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333">
-        <v>113.736</v>
-      </c>
-      <c r="C333">
-        <v>112.70399999999999</v>
-      </c>
-      <c r="D333">
-        <v>112.70399999999999</v>
-      </c>
-      <c r="E333">
-        <v>113.22</v>
-      </c>
-      <c r="F333">
-        <v>113.736</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334">
-        <v>117.431</v>
-      </c>
-      <c r="C334">
-        <v>117.43300000000001</v>
-      </c>
-      <c r="D334">
-        <v>117.431</v>
-      </c>
-      <c r="E334">
-        <v>117.432</v>
-      </c>
-      <c r="F334">
-        <v>117.43300000000001</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335">
-        <v>119.44</v>
-      </c>
-      <c r="C335">
-        <v>118.2</v>
-      </c>
-      <c r="D335">
-        <v>118.2</v>
-      </c>
-      <c r="E335">
-        <v>118.82</v>
-      </c>
-      <c r="F335">
-        <v>119.44</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>340</v>
-      </c>
-      <c r="B355">
-        <v>600</v>
-      </c>
-      <c r="C355">
-        <v>600</v>
-      </c>
-      <c r="D355">
-        <v>600</v>
-      </c>
-      <c r="E355">
-        <v>600</v>
-      </c>
-      <c r="F355">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>341</v>
-      </c>
-      <c r="B356">
-        <v>131.7126553160173</v>
-      </c>
-      <c r="C356">
-        <v>132.58726732900439</v>
-      </c>
-      <c r="D356">
-        <v>131.4661928008658</v>
-      </c>
-      <c r="E356">
-        <v>132.14996132251079</v>
-      </c>
-      <c r="F356">
-        <v>132.83372984415581</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357">
-        <v>292.69087137533899</v>
-      </c>
-      <c r="C357">
-        <v>292.98923821527637</v>
-      </c>
-      <c r="D357">
-        <v>292.18333572550409</v>
-      </c>
-      <c r="E357">
-        <v>292.83490977925692</v>
-      </c>
-      <c r="F357">
-        <v>293.49443472136107</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>343</v>
-      </c>
-      <c r="B358">
-        <v>12.68645233852941</v>
-      </c>
-      <c r="C358">
-        <v>52.995039920231953</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>344</v>
-      </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-      <c r="C359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>345</v>
-      </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>346</v>
-      </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>347</v>
-      </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-      <c r="C362">
-        <v>0</v>
+      <c r="I342">
+        <f>AVERAGE(E3:E328)</f>
+        <v>139.32784206901832</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F95523-0A64-A24E-B5F3-CC5E101622AB}">
+  <dimension ref="D18:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>